--- a/test/fixtures/files/upload_single_page/05_combo_update_assay_samples_with_registered_assets_spreadsheet.xlsx
+++ b/test/fixtures/files/upload_single_page/05_combo_update_assay_samples_with_registered_assets_spreadsheet.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin.depelseneer/dev/projects/seek/test/fixtures/files/upload_single_page/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9ADE05-A930-F942-BD38-9BBF95EFCD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B038824-F9D3-E94C-BD87-A2D24CADE0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="600" windowWidth="38400" windowHeight="21000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="600" windowWidth="38400" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample Type Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="Samples" sheetId="2" r:id="rId2"/>
+    <sheet name="Controlled Vocabularies" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -897,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -911,7 +912,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -919,71 +920,87 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>10005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2">
-        <v>10008</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10002</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -999,7 +1016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -11211,4 +11228,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72866CE6-FC38-6C4F-855F-2E2DFBA1C5F3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>